--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
